--- a/scrum/planning/burndown.xlsx
+++ b/scrum/planning/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4F911-DF85-1742-9511-194982363C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE04B7A-DBCA-6047-9557-B42F04611C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21640" windowHeight="17540" activeTab="4" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="17540" activeTab="3" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 8" sheetId="7" r:id="rId1"/>
@@ -1414,8 +1414,29 @@
             <c:numRef>
               <c:f>'Sprint 4'!$B$5:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6666666666666714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3333333333333384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1488,6 +1509,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1830,10 +1860,49 @@
             <c:numRef>
               <c:f>'Sprint 3'!$B$5:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.07692307692308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.15384615384616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.230769230769237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.307692307692314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.38461538461539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.461538461538467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.538461538461544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.61538461538462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.692307692307697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7692307692307736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8461538461538503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9230769230769273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4408920985006262E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,13 +1995,49 @@
             <c:numRef>
               <c:f>'Sprint 3'!$C$5:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7771,8 +7876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC34136-754B-DA47-9D95-DD0AF8B7EF81}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7805,40 +7910,75 @@
       <c r="A5" s="1">
         <v>44295</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>26</v>
+      </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44296</v>
       </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B11" si="0">B5-$E$5</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44297</v>
       </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>17.333333333333336</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44298</v>
       </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>13.000000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44299</v>
       </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666714</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44300</v>
       </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3333333333333384</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44301</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7854,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55106EC1-B75D-7344-B2CA-B59BD49FD08B}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7889,82 +8029,170 @@
         <v>44281</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <f>B5/6</f>
-        <v>2.6666666666666665</v>
+        <f>B5/13</f>
+        <v>2.9230769230769229</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44282</v>
       </c>
+      <c r="B6" s="4">
+        <f>B5-$E$5</f>
+        <v>35.07692307692308</v>
+      </c>
+      <c r="C6" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44283</v>
       </c>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7:B18" si="0">B6-$E$5</f>
+        <v>32.15384615384616</v>
+      </c>
+      <c r="C7" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44284</v>
       </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>29.230769230769237</v>
+      </c>
       <c r="C8">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44285</v>
       </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>26.307692307692314</v>
+      </c>
+      <c r="C9" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44286</v>
       </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>23.38461538461539</v>
+      </c>
+      <c r="C10" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44287</v>
       </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>20.461538461538467</v>
+      </c>
+      <c r="C11" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44288</v>
       </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>17.538461538461544</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44289</v>
       </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>14.61538461538462</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44290</v>
       </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11.692307692307697</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44291</v>
       </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7692307692307736</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44292</v>
       </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8461538461538503</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44293</v>
       </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9230769230769273</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44294</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +8206,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8105,7 +8333,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scrum/planning/burndown.xlsx
+++ b/scrum/planning/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE04B7A-DBCA-6047-9557-B42F04611C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2027058-B379-8744-B0E3-17D152F27947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="17540" activeTab="3" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
@@ -1417,22 +1417,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>23.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.333333333333336</c:v>
+                  <c:v>18.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.000000000000004</c:v>
+                  <c:v>13.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6666666666666714</c:v>
+                  <c:v>9.3333333333333286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3333333333333384</c:v>
+                  <c:v>4.6666666666666616</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1510,10 +1510,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -7877,7 +7877,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7911,14 +7911,14 @@
         <v>44295</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7927,10 +7927,10 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B11" si="0">B5-$E$5</f>
-        <v>21.666666666666668</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>17.333333333333336</v>
+        <v>18.666666666666664</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>13.000000000000004</v>
+        <v>13.999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>8.6666666666666714</v>
+        <v>9.3333333333333286</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>4.3333333333333384</v>
+        <v>4.6666666666666616</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/scrum/planning/burndown.xlsx
+++ b/scrum/planning/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2027058-B379-8744-B0E3-17D152F27947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C32094-CA17-3445-AD92-45A4510383E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="17540" activeTab="3" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
@@ -1417,22 +1417,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.999999999999996</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6666666666666616</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1510,13 +1510,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7877,7 +7889,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7911,14 +7923,14 @@
         <v>44295</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>4.666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7927,10 +7939,10 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B11" si="0">B5-$E$5</f>
-        <v>23.333333333333332</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7939,10 +7951,10 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>18.666666666666664</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7951,7 +7963,10 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>13.999999999999996</v>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7960,7 +7975,10 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>9.3333333333333286</v>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -7969,7 +7987,10 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>4.6666666666666616</v>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7978,6 +7999,9 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>

--- a/scrum/planning/burndown.xlsx
+++ b/scrum/planning/burndown.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C32094-CA17-3445-AD92-45A4510383E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDDC373-903B-F947-9D94-390BF0453E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="17540" activeTab="3" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22380" windowHeight="17540" activeTab="1" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 8" sheetId="7" r:id="rId1"/>
-    <sheet name="Sprint 7" sheetId="6" r:id="rId2"/>
-    <sheet name="Sprint 6" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint 3" sheetId="1" r:id="rId5"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId6"/>
-    <sheet name="Sprint 1" sheetId="3" r:id="rId7"/>
+    <sheet name="Sprint 9" sheetId="9" r:id="rId1"/>
+    <sheet name="Sprint 8" sheetId="8" r:id="rId2"/>
+    <sheet name="Sprint 7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sprint 6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sprint 3" sheetId="1" r:id="rId7"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sprint 1" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>Grupo 8</t>
   </si>
@@ -134,6 +136,484 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 9</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 9'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 9'!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 9'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C929-BD47-9537-668E7F1B128C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 9'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 9'!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 9'!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C929-BD47-9537-668E7F1B128C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1310028432"/>
+        <c:axId val="1309891248"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1310028432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309891248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1309891248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310028432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -202,25 +682,25 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44316</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44317</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44318</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44319</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44320</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44321</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44322</c:v>
+                  <c:v>44329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -231,13 +711,31 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A138-2E41-B892-A93E17E7DD2C}"/>
+              <c16:uniqueId val="{00000000-732A-3846-AF87-3E79270F83F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -274,25 +772,25 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44316</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44317</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44318</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44319</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44320</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44321</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44322</c:v>
+                  <c:v>44329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,6 +798,444 @@
           <c:val>
             <c:numRef>
               <c:f>'Sprint 8'!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-732A-3846-AF87-3E79270F83F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1293971936"/>
+        <c:axId val="1294005184"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1293971936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1294005184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1294005184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293971936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 7'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 7'!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 7'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A138-2E41-B892-A93E17E7DD2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 7'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 7'!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 7'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -514,7 +1450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -529,6 +1465,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 6</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,7 +1535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 7'!$B$4</c:f>
+              <c:f>'Sprint 6'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -592,7 +1558,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 7'!$A$5:$A$11</c:f>
+              <c:f>'Sprint 6'!$A$5:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
@@ -622,10 +1588,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 7'!$B$5:$B$11</c:f>
+              <c:f>'Sprint 6'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -641,7 +1628,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 7'!$C$4</c:f>
+              <c:f>'Sprint 6'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,7 +1651,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 7'!$A$5:$A$11</c:f>
+              <c:f>'Sprint 6'!$A$5:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
@@ -694,10 +1681,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 7'!$C$5:$C$11</c:f>
+              <c:f>'Sprint 6'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -909,7 +1917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -924,6 +1932,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -964,7 +1997,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 6'!$B$4</c:f>
+              <c:f>'Sprint 5'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,7 +2020,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 6'!$A$5:$A$11</c:f>
+              <c:f>'Sprint 5'!$A$5:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1017,10 +2050,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 6'!$B$5:$B$11</c:f>
+              <c:f>'Sprint 5'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1036,7 +2090,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 6'!$C$4</c:f>
+              <c:f>'Sprint 5'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1059,7 +2113,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 6'!$A$5:$A$11</c:f>
+              <c:f>'Sprint 5'!$A$5:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1089,10 +2143,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 6'!$C$5:$C$11</c:f>
+              <c:f>'Sprint 5'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1304,7 +2379,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1319,6 +2394,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1509,7 +2609,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0" formatCode="0">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1741,7 +2841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1756,6 +2856,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2262,7 +3392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2277,6 +3407,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2699,7 +3859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3441,6 +4601,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7053,7 +8293,1121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45938ED3-5CD2-9C46-98A7-98092845C900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121A4152-0C57-754A-A6DB-9C0A68C386F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7094,7 +9448,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7135,7 +9489,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7176,7 +9530,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7217,7 +9571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7258,7 +9612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7299,7 +9653,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7636,11 +9990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5408637-1970-594B-93D5-181503BF2396}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B2FA7-B847-EA4C-A8F8-016D01F2BAE9}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7671,46 +10025,81 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44316</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>44330</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44317</v>
+      <c r="A6" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B6">
+        <f>B5-$E$5</f>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44318</v>
+      <c r="A7" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44319</v>
+        <v>44333</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44320</v>
+        <v>44334</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44321</v>
+        <v>44335</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44322</v>
+        <v>44336</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7719,11 +10108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195043C-59A4-154C-AFF8-8F6FEE389AB1}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C62D5F-7FEF-C646-90BD-BB6905B87D93}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7754,7 +10143,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5">
@@ -7763,37 +10152,67 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44310</v>
+      <c r="A6" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B6">
+        <f>B5-$E$5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44311</v>
+      <c r="A7" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44312</v>
+        <v>44326</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44313</v>
+        <v>44327</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44314</v>
+        <v>44328</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44315</v>
+        <v>44329</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7802,11 +10221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D33214B-CED7-D44B-8E1E-88B3CBC1E31D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5408637-1970-594B-93D5-181503BF2396}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7837,7 +10256,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5">
@@ -7847,32 +10266,56 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44303</v>
+        <v>44317</v>
+      </c>
+      <c r="B6">
+        <f>B5-$E$5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44304</v>
+        <v>44318</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44305</v>
+        <v>44319</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44306</v>
+        <v>44320</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44307</v>
+        <v>44321</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44308</v>
+        <v>44322</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7885,11 +10328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC34136-754B-DA47-9D95-DD0AF8B7EF81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195043C-59A4-154C-AFF8-8F6FEE389AB1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7920,38 +10363,38 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44295</v>
+        <v>44309</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44296</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" ref="B6:B11" si="0">B5-$E$5</f>
-        <v>30</v>
+        <v>44310</v>
+      </c>
+      <c r="B6">
+        <f>B5-$E$5</f>
+        <v>17.5</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44297</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>44311</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -7959,45 +10402,45 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44298</v>
-      </c>
-      <c r="B8" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44299</v>
-      </c>
-      <c r="B9" s="4">
+        <v>44313</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44300</v>
-      </c>
-      <c r="B10" s="4">
+        <v>44314</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="C10">
         <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44301</v>
-      </c>
-      <c r="B11" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8015,11 +10458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55106EC1-B75D-7344-B2CA-B59BD49FD08B}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D33214B-CED7-D44B-8E1E-88B3CBC1E31D}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8050,174 +10493,93 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44281</v>
+        <v>44302</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <f>B5/13</f>
-        <v>2.9230769230769229</v>
+        <f>B5/6</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44282</v>
-      </c>
-      <c r="B6" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B6">
         <f>B5-$E$5</f>
-        <v>35.07692307692308</v>
-      </c>
-      <c r="C6" s="4">
-        <v>38</v>
+        <v>7.5</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44283</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" ref="B7:B18" si="0">B6-$E$5</f>
-        <v>32.15384615384616</v>
-      </c>
-      <c r="C7" s="4">
-        <v>33</v>
+        <v>44304</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44284</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>29.230769230769237</v>
+        <v>4.5</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>44285</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>26.307692307692314</v>
-      </c>
-      <c r="C9" s="4">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="0"/>
-        <v>23.38461538461539</v>
-      </c>
-      <c r="C10" s="4">
-        <v>23</v>
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v>20.461538461538467</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44288</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>17.538461538461544</v>
-      </c>
-      <c r="C12" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44289</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>14.61538461538462</v>
-      </c>
-      <c r="C13" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44290</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>11.692307692307697</v>
-      </c>
-      <c r="C14" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44291</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.7692307692307736</v>
-      </c>
-      <c r="C15" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8461538461538503</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44293</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9230769230769273</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44294</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>4.4408920985006262E-15</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8226,11 +10588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9642FF87-904B-564B-9AAC-4D40BC1A154E}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC34136-754B-DA47-9D95-DD0AF8B7EF81}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8261,74 +10623,74 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44274</v>
+        <v>44295</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>2.6666666666666665</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44275</v>
+        <v>44296</v>
       </c>
       <c r="B6" s="4">
-        <f>B5-$E$5</f>
-        <v>13.333333333333334</v>
+        <f t="shared" ref="B6:B11" si="0">B5-$E$5</f>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44276</v>
+        <v>44297</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
-        <v>10.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44277</v>
+        <v>44298</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>8.0000000000000018</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44278</v>
+        <v>44299</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>5.3333333333333357</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44279</v>
+        <v>44300</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.6666666666666692</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8336,7 +10698,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44280</v>
+        <v>44301</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
@@ -8345,6 +10707,9 @@
       <c r="C11">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8353,6 +10718,344 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55106EC1-B75D-7344-B2CA-B59BD49FD08B}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <f>B5/13</f>
+        <v>2.9230769230769229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B5-$E$5</f>
+        <v>35.07692307692308</v>
+      </c>
+      <c r="C6" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7:B18" si="0">B6-$E$5</f>
+        <v>32.15384615384616</v>
+      </c>
+      <c r="C7" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>29.230769230769237</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>26.307692307692314</v>
+      </c>
+      <c r="C9" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>23.38461538461539</v>
+      </c>
+      <c r="C10" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>20.461538461538467</v>
+      </c>
+      <c r="C11" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>17.538461538461544</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>14.61538461538462</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11.692307692307697</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7692307692307736</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8461538461538503</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9230769230769273</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9642FF87-904B-564B-9AAC-4D40BC1A154E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f>B5/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B5-$E$5</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
+        <v>10.666666666666668</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666692</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0BF649-87F4-5844-B948-2114C9AE3164}">
   <dimension ref="A1:E12"/>
   <sheetViews>

--- a/scrum/planning/burndown.xlsx
+++ b/scrum/planning/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDDC373-903B-F947-9D94-390BF0453E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D755F18-2590-D648-80FA-4ABA1F7F7038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22380" windowHeight="17540" activeTab="1" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22380" windowHeight="17540" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 9" sheetId="9" r:id="rId1"/>
@@ -358,6 +358,24 @@
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,20 +729,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -801,6 +822,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1149,20 +1191,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15.499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.1666666666666616</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1239,6 +1284,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9993,8 +10059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B2FA7-B847-EA4C-A8F8-016D01F2BAE9}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10046,6 +10112,9 @@
         <f>B5-$E$5</f>
         <v>8.3333333333333339</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -10055,6 +10124,9 @@
         <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -10064,6 +10136,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -10073,6 +10148,9 @@
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -10082,6 +10160,9 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666663</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -10089,6 +10170,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -10111,8 +10195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C62D5F-7FEF-C646-90BD-BB6905B87D93}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10145,10 +10229,15 @@
       <c r="A5" s="1">
         <v>44323</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10157,7 +10246,10 @@
       </c>
       <c r="B6">
         <f>B5-$E$5</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10166,7 +10258,10 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10175,7 +10270,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10184,7 +10282,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10193,6 +10294,9 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
@@ -10202,6 +10306,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -10225,7 +10332,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10258,10 +10365,15 @@
       <c r="A5" s="1">
         <v>44316</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>31</v>
+      </c>
       <c r="E5">
         <f>B5/6</f>
-        <v>0</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10270,7 +10382,10 @@
       </c>
       <c r="B6">
         <f>B5-$E$5</f>
-        <v>0</v>
+        <v>25.833333333333332</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10279,7 +10394,10 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B11" si="0">B6-$E$5</f>
-        <v>0</v>
+        <v>20.666666666666664</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10288,7 +10406,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.499999999999996</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10297,7 +10418,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.333333333333329</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10306,7 +10430,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.1666666666666616</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10315,6 +10442,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
